--- a/DataNV/Пікалюк.xlsx
+++ b/DataNV/Пікалюк.xlsx
@@ -603,7 +603,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026724 від 25.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026724 від 25.07.2024 09:31:09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -720,7 +720,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026812 від 29.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026812 від 29.07.2024 15:18:41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -827,7 +827,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026840 від 30.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026840 від 30.07.2024 11:28:09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -929,7 +929,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026880 від 31.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026880 від 31.07.2024 10:56:34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
